--- a/gestion/planificacion.xlsx
+++ b/gestion/planificacion.xlsx
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +161,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +184,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,12 +216,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,10 +232,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -558,7 +573,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -575,10 +590,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
